--- a/10. 스마트문화앱UI디자인/스마트문화앱UI디자인.xlsx
+++ b/10. 스마트문화앱UI디자인/스마트문화앱UI디자인.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\평가관련\20240529\backup\10. 스마트문화앱UI디자인\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CD5F03-0526-4BF6-9AF0-C8B186F0ADF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54367EB2-C73D-4F73-92E4-7956EA64B637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="861" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="72">
   <si>
     <t>학습자 명</t>
   </si>
@@ -281,15 +281,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>스마트문화앱 UX 설계
-(0803020911_18v3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5문항</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>정보구조 설계를 할 수 있고 사용자에게 편의성 높은 내비게이션을 제공함이 우수하나 레이아웃 구현과 마우스 오버 구현 보완이 필요해보임</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -342,16 +333,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>정보구조 설계를 할 수 있고 사용자에게 편의성 높은 내비게이션을 제공함이 우수하나 네비게이션 마우스 오버 구현 보완이 필요해 보임.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>인터페이스(interface) 기능 요소와 사용성을 고려하여 항목들을 배치하고 효율적인 워크플로우 제작이 우수하나 마우스 오버 구현 보완이 필요해보임</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>스마트문화앱UI디자인
-(0803020911_18v3)</t>
+(0803020912_18v3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일관된 UX를 고려하여 편리한 사용자 환경을 디자인하고 제작하여 스타일 가이드 제작이 우수하나 네비게이션 마우스 오버 구현 보완이 필요해 보임.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1954,7 +1945,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:L26"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2020,7 +2011,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="26">
-        <v>45495</v>
+        <v>45505</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="28"/>
@@ -2047,7 +2038,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="26">
-        <v>45497</v>
+        <v>45509</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -2063,7 +2054,7 @@
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -2072,7 +2063,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="26">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="28"/>
@@ -2129,7 +2120,7 @@
       <c r="F9" s="52"/>
       <c r="G9" s="6" t="str">
         <f>IF($G$16&gt;=90,"○","")</f>
-        <v/>
+        <v>○</v>
       </c>
       <c r="H9" s="52" t="s">
         <v>9</v>
@@ -2177,7 +2168,7 @@
       <c r="F11" s="52"/>
       <c r="G11" s="6" t="str">
         <f t="shared" ref="G11" si="0">IF(AND($G$16&lt;80,$G$16&gt;=60),"○","")</f>
-        <v>○</v>
+        <v/>
       </c>
       <c r="H11" s="52" t="s">
         <v>12</v>
@@ -2296,11 +2287,11 @@
         <v>10</v>
       </c>
       <c r="O15" s="1">
-        <f>SUM(N13:N15)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
+        <f>SUM(N13:N16)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="7.5" customHeight="1" thickBot="1">
       <c r="A16" s="75"/>
       <c r="B16" s="78"/>
       <c r="C16" s="79"/>
@@ -2309,7 +2300,7 @@
       <c r="F16" s="79"/>
       <c r="G16" s="46">
         <f>ROUND(SUM(E15:F26),1)</f>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="17" t="s">
@@ -2328,13 +2319,13 @@
       </c>
       <c r="B17" s="76">
         <f>O15</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C17" s="77"/>
       <c r="D17" s="84"/>
       <c r="E17" s="76">
         <f>B17</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F17" s="77"/>
       <c r="G17" s="46"/>
@@ -2370,7 +2361,7 @@
       </c>
       <c r="B19" s="92">
         <f>O19</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C19" s="93"/>
       <c r="D19" s="83" t="s">
@@ -2378,7 +2369,7 @@
       </c>
       <c r="E19" s="92">
         <f>B19</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="46"/>
@@ -2391,8 +2382,8 @@
         <v>5</v>
       </c>
       <c r="O19" s="1">
-        <f>SUM(N16:N18)</f>
-        <v>13</v>
+        <f>SUM(N17:N20)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -2413,12 +2404,12 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="84"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="20"/>
@@ -2429,20 +2420,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A22" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="92">
-        <v>15</v>
-      </c>
-      <c r="C22" s="93"/>
+    <row r="22" spans="1:15" ht="1.5" customHeight="1">
+      <c r="A22" s="74"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="84"/>
-      <c r="E22" s="92">
-        <f>N19</f>
-        <v>5</v>
-      </c>
-      <c r="F22" s="93"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="20"/>
@@ -2450,7 +2434,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1">
+    <row r="23" spans="1:15" ht="18.75" hidden="1" customHeight="1">
       <c r="A23" s="75"/>
       <c r="B23" s="78"/>
       <c r="C23" s="79"/>
@@ -2465,19 +2449,20 @@
       <c r="L23" s="22"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A24" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="76">
-        <v>15</v>
-      </c>
-      <c r="C24" s="77"/>
+      <c r="A24" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="92">
+        <f>N21</f>
+        <v>30</v>
+      </c>
+      <c r="C24" s="93"/>
       <c r="D24" s="84"/>
-      <c r="E24" s="76">
-        <f>N20</f>
-        <v>3</v>
-      </c>
-      <c r="F24" s="77"/>
+      <c r="E24" s="92">
+        <f>B24</f>
+        <v>30</v>
+      </c>
+      <c r="F24" s="93"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="20"/>
@@ -2499,7 +2484,7 @@
       <c r="K25" s="21"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:15" ht="31.5" customHeight="1" thickBot="1">
       <c r="A26" s="94"/>
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
@@ -2528,17 +2513,14 @@
       <c r="L27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="E19:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="E22:F23"/>
+  <mergeCells count="53">
     <mergeCell ref="D19:D25"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:C26"/>
     <mergeCell ref="E24:F26"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:C23"/>
+    <mergeCell ref="E19:F23"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:C18"/>
     <mergeCell ref="E17:F18"/>
@@ -2597,7 +2579,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A12" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="G16" sqref="G16:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2663,7 +2645,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="26">
-        <v>45495</v>
+        <v>45505</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="28"/>
@@ -2690,7 +2672,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="26">
-        <v>45497</v>
+        <v>45509</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -2706,7 +2688,7 @@
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="37" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -2715,7 +2697,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="26">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="28"/>
@@ -2772,7 +2754,7 @@
       <c r="F9" s="52"/>
       <c r="G9" s="6" t="str">
         <f>IF($G$16&gt;=90,"○","")</f>
-        <v/>
+        <v>○</v>
       </c>
       <c r="H9" s="52" t="s">
         <v>9</v>
@@ -2796,7 +2778,7 @@
       <c r="F10" s="52"/>
       <c r="G10" s="6" t="str">
         <f>IF(AND($G$16&lt;90,$G$16&gt;=80),"○","")</f>
-        <v>○</v>
+        <v/>
       </c>
       <c r="H10" s="52" t="s">
         <v>11</v>
@@ -2886,7 +2868,7 @@
       <c r="K13" s="52"/>
       <c r="L13" s="56"/>
       <c r="N13" s="9">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="38.25" customHeight="1" thickBot="1">
@@ -2905,7 +2887,7 @@
       <c r="K14" s="58"/>
       <c r="L14" s="59"/>
       <c r="N14" s="10">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="42" customHeight="1" thickBot="1">
@@ -2936,14 +2918,14 @@
       <c r="K15" s="15"/>
       <c r="L15" s="16"/>
       <c r="N15" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O15" s="1">
-        <f>SUM(N13:N15)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
+        <f>SUM(N13:N16)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="7.5" customHeight="1" thickBot="1">
       <c r="A16" s="75"/>
       <c r="B16" s="78"/>
       <c r="C16" s="79"/>
@@ -2952,17 +2934,17 @@
       <c r="F16" s="79"/>
       <c r="G16" s="46">
         <f>ROUND(SUM(E15:F26),1)</f>
-        <v>88.5</v>
+        <v>95</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="19"/>
       <c r="N16" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -2971,13 +2953,13 @@
       </c>
       <c r="B17" s="76">
         <f>O15</f>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C17" s="77"/>
       <c r="D17" s="84"/>
       <c r="E17" s="76">
         <f>B17</f>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F17" s="77"/>
       <c r="G17" s="46"/>
@@ -2986,8 +2968,8 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
       <c r="L17" s="22"/>
-      <c r="N17" s="9">
-        <v>10</v>
+      <c r="N17" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="40.5" customHeight="1" thickBot="1">
@@ -3003,7 +2985,7 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
-      <c r="N18" s="12">
+      <c r="N18" s="9">
         <v>5</v>
       </c>
     </row>
@@ -3013,7 +2995,7 @@
       </c>
       <c r="B19" s="92">
         <f>O19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C19" s="93"/>
       <c r="D19" s="83" t="s">
@@ -3021,7 +3003,7 @@
       </c>
       <c r="E19" s="92">
         <f>B19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="46"/>
@@ -3031,11 +3013,11 @@
       <c r="K19" s="21"/>
       <c r="L19" s="22"/>
       <c r="N19" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O19" s="1">
-        <f>SUM(N16:N18)</f>
-        <v>25</v>
+        <f>SUM(N17:N20)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -3052,37 +3034,33 @@
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="N20" s="12">
-        <v>12.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="84"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A22" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="92">
-        <v>15</v>
-      </c>
-      <c r="C22" s="93"/>
+      <c r="N21" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="1.5" customHeight="1">
+      <c r="A22" s="74"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="84"/>
-      <c r="E22" s="92">
-        <f>N19</f>
-        <v>10</v>
-      </c>
-      <c r="F22" s="93"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="20"/>
@@ -3090,7 +3068,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1">
+    <row r="23" spans="1:15" ht="18.75" hidden="1" customHeight="1">
       <c r="A23" s="75"/>
       <c r="B23" s="78"/>
       <c r="C23" s="79"/>
@@ -3105,19 +3083,20 @@
       <c r="L23" s="22"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A24" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="76">
-        <v>15</v>
-      </c>
-      <c r="C24" s="77"/>
+      <c r="A24" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="92">
+        <f>N21</f>
+        <v>30</v>
+      </c>
+      <c r="C24" s="93"/>
       <c r="D24" s="84"/>
-      <c r="E24" s="76">
-        <f>N20</f>
-        <v>12.5</v>
-      </c>
-      <c r="F24" s="77"/>
+      <c r="E24" s="92">
+        <f>B24</f>
+        <v>30</v>
+      </c>
+      <c r="F24" s="93"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="20"/>
@@ -3139,7 +3118,7 @@
       <c r="K25" s="21"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:15" ht="31.5" customHeight="1" thickBot="1">
       <c r="A26" s="94"/>
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
@@ -3168,19 +3147,16 @@
       <c r="L27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="53">
     <mergeCell ref="B24:C26"/>
     <mergeCell ref="E24:F26"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:C23"/>
+    <mergeCell ref="E19:F23"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="G16:H26"/>
     <mergeCell ref="I16:L26"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="E19:F21"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="E15:F16"/>
@@ -3237,7 +3213,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="G16" sqref="G16:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3303,7 +3279,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="26">
-        <v>45495</v>
+        <v>45505</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="28"/>
@@ -3330,7 +3306,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="26">
-        <v>45497</v>
+        <v>45509</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -3346,7 +3322,7 @@
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="37" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -3355,7 +3331,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="26">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="28"/>
@@ -3412,7 +3388,7 @@
       <c r="F9" s="52"/>
       <c r="G9" s="6" t="str">
         <f>IF($G$16&gt;=90,"○","")</f>
-        <v/>
+        <v>○</v>
       </c>
       <c r="H9" s="52" t="s">
         <v>9</v>
@@ -3436,7 +3412,7 @@
       <c r="F10" s="52"/>
       <c r="G10" s="6" t="str">
         <f>IF(AND($G$16&lt;90,$G$16&gt;=80),"○","")</f>
-        <v>○</v>
+        <v/>
       </c>
       <c r="H10" s="52" t="s">
         <v>11</v>
@@ -3545,7 +3521,7 @@
       <c r="K14" s="58"/>
       <c r="L14" s="59"/>
       <c r="N14" s="10">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="42" customHeight="1" thickBot="1">
@@ -3576,14 +3552,14 @@
       <c r="K15" s="15"/>
       <c r="L15" s="16"/>
       <c r="N15" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O15" s="1">
-        <f>SUM(N13:N15)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
+        <f>SUM(N13:N16)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="7.5" customHeight="1" thickBot="1">
       <c r="A16" s="75"/>
       <c r="B16" s="78"/>
       <c r="C16" s="79"/>
@@ -3592,17 +3568,17 @@
       <c r="F16" s="79"/>
       <c r="G16" s="46">
         <f>ROUND(SUM(E15:F26),1)</f>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="19"/>
       <c r="N16" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -3611,13 +3587,13 @@
       </c>
       <c r="B17" s="76">
         <f>O15</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C17" s="77"/>
       <c r="D17" s="84"/>
       <c r="E17" s="76">
         <f>B17</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F17" s="77"/>
       <c r="G17" s="46"/>
@@ -3626,8 +3602,8 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
       <c r="L17" s="22"/>
-      <c r="N17" s="9">
-        <v>10</v>
+      <c r="N17" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="40.5" customHeight="1" thickBot="1">
@@ -3643,7 +3619,7 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
-      <c r="N18" s="12">
+      <c r="N18" s="9">
         <v>5</v>
       </c>
     </row>
@@ -3653,7 +3629,7 @@
       </c>
       <c r="B19" s="92">
         <f>O19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C19" s="93"/>
       <c r="D19" s="83" t="s">
@@ -3661,7 +3637,7 @@
       </c>
       <c r="E19" s="92">
         <f>B19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="46"/>
@@ -3671,11 +3647,11 @@
       <c r="K19" s="21"/>
       <c r="L19" s="22"/>
       <c r="N19" s="12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O19" s="1">
-        <f>SUM(N16:N18)</f>
-        <v>25</v>
+        <f>SUM(N17:N20)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -3692,37 +3668,33 @@
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="N20" s="12">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="84"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A22" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="92">
-        <v>15</v>
-      </c>
-      <c r="C22" s="93"/>
+      <c r="N21" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="1.5" customHeight="1">
+      <c r="A22" s="74"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="84"/>
-      <c r="E22" s="92">
-        <f>N19</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="93"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="20"/>
@@ -3730,7 +3702,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1">
+    <row r="23" spans="1:15" ht="18.75" hidden="1" customHeight="1">
       <c r="A23" s="75"/>
       <c r="B23" s="78"/>
       <c r="C23" s="79"/>
@@ -3745,19 +3717,20 @@
       <c r="L23" s="22"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A24" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="76">
-        <v>15</v>
-      </c>
-      <c r="C24" s="77"/>
+      <c r="A24" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="92">
+        <f>N21</f>
+        <v>30</v>
+      </c>
+      <c r="C24" s="93"/>
       <c r="D24" s="84"/>
-      <c r="E24" s="76">
-        <f>N20</f>
-        <v>15</v>
-      </c>
-      <c r="F24" s="77"/>
+      <c r="E24" s="92">
+        <f>B24</f>
+        <v>30</v>
+      </c>
+      <c r="F24" s="93"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="20"/>
@@ -3779,7 +3752,7 @@
       <c r="K25" s="21"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:15" ht="31.5" customHeight="1" thickBot="1">
       <c r="A26" s="94"/>
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
@@ -3808,19 +3781,16 @@
       <c r="L27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="53">
     <mergeCell ref="B24:C26"/>
     <mergeCell ref="E24:F26"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:C23"/>
+    <mergeCell ref="E19:F23"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="G16:H26"/>
     <mergeCell ref="I16:L26"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="E19:F21"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="E15:F16"/>
@@ -3877,7 +3847,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:L26"/>
+      <selection activeCell="G16" sqref="G16:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3943,7 +3913,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="26">
-        <v>45495</v>
+        <v>45505</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="28"/>
@@ -3970,7 +3940,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="26">
-        <v>45497</v>
+        <v>45509</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -3986,7 +3956,7 @@
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="37" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -3995,7 +3965,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="26">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="28"/>
@@ -4052,7 +4022,7 @@
       <c r="F9" s="52"/>
       <c r="G9" s="6" t="str">
         <f>IF($G$16&gt;=90,"○","")</f>
-        <v/>
+        <v>○</v>
       </c>
       <c r="H9" s="52" t="s">
         <v>9</v>
@@ -4076,7 +4046,7 @@
       <c r="F10" s="52"/>
       <c r="G10" s="6" t="str">
         <f>IF(AND($G$16&lt;90,$G$16&gt;=80),"○","")</f>
-        <v>○</v>
+        <v/>
       </c>
       <c r="H10" s="52" t="s">
         <v>11</v>
@@ -4185,7 +4155,7 @@
       <c r="K14" s="58"/>
       <c r="L14" s="59"/>
       <c r="N14" s="10">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="42" customHeight="1" thickBot="1">
@@ -4216,14 +4186,14 @@
       <c r="K15" s="15"/>
       <c r="L15" s="16"/>
       <c r="N15" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O15" s="1">
-        <f>SUM(N13:N15)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
+        <f>SUM(N13:N16)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="7.5" customHeight="1" thickBot="1">
       <c r="A16" s="75"/>
       <c r="B16" s="78"/>
       <c r="C16" s="79"/>
@@ -4232,17 +4202,17 @@
       <c r="F16" s="79"/>
       <c r="G16" s="46">
         <f>ROUND(SUM(E15:F26),1)</f>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="19"/>
       <c r="N16" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -4251,13 +4221,13 @@
       </c>
       <c r="B17" s="76">
         <f>O15</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C17" s="77"/>
       <c r="D17" s="84"/>
       <c r="E17" s="76">
         <f>B17</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F17" s="77"/>
       <c r="G17" s="46"/>
@@ -4266,8 +4236,8 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
       <c r="L17" s="22"/>
-      <c r="N17" s="9">
-        <v>10</v>
+      <c r="N17" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="40.5" customHeight="1" thickBot="1">
@@ -4283,7 +4253,7 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
-      <c r="N18" s="12">
+      <c r="N18" s="9">
         <v>5</v>
       </c>
     </row>
@@ -4293,7 +4263,7 @@
       </c>
       <c r="B19" s="92">
         <f>O19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C19" s="93"/>
       <c r="D19" s="83" t="s">
@@ -4301,7 +4271,7 @@
       </c>
       <c r="E19" s="92">
         <f>B19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="46"/>
@@ -4311,11 +4281,11 @@
       <c r="K19" s="21"/>
       <c r="L19" s="22"/>
       <c r="N19" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O19" s="1">
-        <f>SUM(N16:N18)</f>
-        <v>25</v>
+        <f>SUM(N17:N20)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -4332,37 +4302,33 @@
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="N20" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="84"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A22" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="92">
-        <v>15</v>
-      </c>
-      <c r="C22" s="93"/>
+      <c r="N21" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="1.5" customHeight="1">
+      <c r="A22" s="74"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="84"/>
-      <c r="E22" s="92">
-        <f>N19</f>
-        <v>10</v>
-      </c>
-      <c r="F22" s="93"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="20"/>
@@ -4370,7 +4336,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1">
+    <row r="23" spans="1:15" ht="18.75" hidden="1" customHeight="1">
       <c r="A23" s="75"/>
       <c r="B23" s="78"/>
       <c r="C23" s="79"/>
@@ -4385,19 +4351,20 @@
       <c r="L23" s="22"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A24" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="76">
-        <v>15</v>
-      </c>
-      <c r="C24" s="77"/>
+      <c r="A24" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="92">
+        <f>N21</f>
+        <v>30</v>
+      </c>
+      <c r="C24" s="93"/>
       <c r="D24" s="84"/>
-      <c r="E24" s="76">
-        <f>N20</f>
-        <v>5</v>
-      </c>
-      <c r="F24" s="77"/>
+      <c r="E24" s="92">
+        <f>B24</f>
+        <v>30</v>
+      </c>
+      <c r="F24" s="93"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="20"/>
@@ -4419,7 +4386,7 @@
       <c r="K25" s="21"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:15" ht="31.5" customHeight="1" thickBot="1">
       <c r="A26" s="94"/>
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
@@ -4448,19 +4415,16 @@
       <c r="L27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="53">
     <mergeCell ref="B24:C26"/>
     <mergeCell ref="E24:F26"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:C23"/>
+    <mergeCell ref="E19:F23"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="G16:H26"/>
     <mergeCell ref="I16:L26"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="E19:F21"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="E15:F16"/>
@@ -4583,7 +4547,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="26">
-        <v>45495</v>
+        <v>45505</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="28"/>
@@ -4610,7 +4574,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="26">
-        <v>45497</v>
+        <v>45509</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -4626,7 +4590,7 @@
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="37" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -4635,7 +4599,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="26">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="28"/>
@@ -4806,7 +4770,7 @@
       <c r="K13" s="52"/>
       <c r="L13" s="56"/>
       <c r="N13" s="9">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="38.25" customHeight="1" thickBot="1">
@@ -4825,7 +4789,7 @@
       <c r="K14" s="58"/>
       <c r="L14" s="59"/>
       <c r="N14" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="42" customHeight="1" thickBot="1">
@@ -4856,14 +4820,14 @@
       <c r="K15" s="15"/>
       <c r="L15" s="16"/>
       <c r="N15" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O15" s="1">
-        <f>SUM(N13:N15)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
+        <f>SUM(N13:N16)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="7.5" customHeight="1" thickBot="1">
       <c r="A16" s="75"/>
       <c r="B16" s="78"/>
       <c r="C16" s="79"/>
@@ -4872,17 +4836,17 @@
       <c r="F16" s="79"/>
       <c r="G16" s="46" t="str">
         <f>ROUND(SUM(E15:F26),1)&amp;"("&amp;74&amp;")"</f>
-        <v>79(74)</v>
+        <v>95(74)</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="19"/>
       <c r="N16" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -4891,13 +4855,13 @@
       </c>
       <c r="B17" s="76">
         <f>O15</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C17" s="77"/>
       <c r="D17" s="84"/>
       <c r="E17" s="76">
         <f>B17</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F17" s="77"/>
       <c r="G17" s="46"/>
@@ -4906,8 +4870,8 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
       <c r="L17" s="22"/>
-      <c r="N17" s="9">
-        <v>10</v>
+      <c r="N17" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="40.5" customHeight="1" thickBot="1">
@@ -4923,7 +4887,7 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
-      <c r="N18" s="12">
+      <c r="N18" s="9">
         <v>5</v>
       </c>
     </row>
@@ -4933,7 +4897,7 @@
       </c>
       <c r="B19" s="92">
         <f>O19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C19" s="93"/>
       <c r="D19" s="83" t="s">
@@ -4941,7 +4905,7 @@
       </c>
       <c r="E19" s="92">
         <f>B19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="46"/>
@@ -4951,11 +4915,11 @@
       <c r="K19" s="21"/>
       <c r="L19" s="22"/>
       <c r="N19" s="12">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="O19" s="1">
-        <f>SUM(N16:N18)</f>
-        <v>25</v>
+        <f>SUM(N17:N20)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -4972,37 +4936,33 @@
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="N20" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="84"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A22" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="92">
-        <v>15</v>
-      </c>
-      <c r="C22" s="93"/>
+      <c r="N21" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="1.5" customHeight="1">
+      <c r="A22" s="74"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="84"/>
-      <c r="E22" s="92">
-        <f>N19</f>
-        <v>15</v>
-      </c>
-      <c r="F22" s="93"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="20"/>
@@ -5010,7 +4970,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1">
+    <row r="23" spans="1:15" ht="18.75" hidden="1" customHeight="1">
       <c r="A23" s="75"/>
       <c r="B23" s="78"/>
       <c r="C23" s="79"/>
@@ -5025,19 +4985,20 @@
       <c r="L23" s="22"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A24" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="76">
-        <v>15</v>
-      </c>
-      <c r="C24" s="77"/>
+      <c r="A24" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="92">
+        <f>N21</f>
+        <v>30</v>
+      </c>
+      <c r="C24" s="93"/>
       <c r="D24" s="84"/>
-      <c r="E24" s="76">
-        <f>N20</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="77"/>
+      <c r="E24" s="92">
+        <f>B24</f>
+        <v>30</v>
+      </c>
+      <c r="F24" s="93"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="20"/>
@@ -5059,7 +5020,7 @@
       <c r="K25" s="21"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:15" ht="31.5" customHeight="1" thickBot="1">
       <c r="A26" s="94"/>
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
@@ -5088,19 +5049,16 @@
       <c r="L27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="53">
     <mergeCell ref="B24:C26"/>
     <mergeCell ref="E24:F26"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:C23"/>
+    <mergeCell ref="E19:F23"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="G16:H26"/>
     <mergeCell ref="I16:L26"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="E19:F21"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="E15:F16"/>
@@ -5157,7 +5115,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A15" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="G16" sqref="G16:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5223,7 +5181,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="26">
-        <v>45495</v>
+        <v>45505</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="28"/>
@@ -5250,7 +5208,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="26">
-        <v>45497</v>
+        <v>45509</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -5266,7 +5224,7 @@
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="37" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -5275,7 +5233,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="26">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="28"/>
@@ -5465,7 +5423,7 @@
       <c r="K14" s="58"/>
       <c r="L14" s="59"/>
       <c r="N14" s="10">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="42" customHeight="1" thickBot="1">
@@ -5496,14 +5454,14 @@
       <c r="K15" s="15"/>
       <c r="L15" s="16"/>
       <c r="N15" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O15" s="1">
-        <f>SUM(N13:N15)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
+        <f>SUM(N13:N16)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="7.5" customHeight="1" thickBot="1">
       <c r="A16" s="75"/>
       <c r="B16" s="78"/>
       <c r="C16" s="79"/>
@@ -5516,13 +5474,13 @@
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="19"/>
       <c r="N16" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -5531,13 +5489,13 @@
       </c>
       <c r="B17" s="76">
         <f>O15</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C17" s="77"/>
       <c r="D17" s="84"/>
       <c r="E17" s="76">
         <f>B17</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F17" s="77"/>
       <c r="G17" s="46"/>
@@ -5546,8 +5504,8 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
       <c r="L17" s="22"/>
-      <c r="N17" s="9">
-        <v>10</v>
+      <c r="N17" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="40.5" customHeight="1" thickBot="1">
@@ -5563,7 +5521,7 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
-      <c r="N18" s="12">
+      <c r="N18" s="9">
         <v>5</v>
       </c>
     </row>
@@ -5573,7 +5531,7 @@
       </c>
       <c r="B19" s="92">
         <f>O19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C19" s="93"/>
       <c r="D19" s="83" t="s">
@@ -5581,7 +5539,7 @@
       </c>
       <c r="E19" s="92">
         <f>B19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="46"/>
@@ -5591,11 +5549,11 @@
       <c r="K19" s="21"/>
       <c r="L19" s="22"/>
       <c r="N19" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O19" s="1">
-        <f>SUM(N16:N18)</f>
-        <v>25</v>
+        <f>SUM(N17:N20)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -5612,37 +5570,33 @@
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="N20" s="12">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="84"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A22" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="92">
-        <v>15</v>
-      </c>
-      <c r="C22" s="93"/>
+      <c r="N21" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="1.5" customHeight="1">
+      <c r="A22" s="74"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="84"/>
-      <c r="E22" s="92">
-        <f>N19</f>
-        <v>10</v>
-      </c>
-      <c r="F22" s="93"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="20"/>
@@ -5650,7 +5604,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1">
+    <row r="23" spans="1:15" ht="18.75" hidden="1" customHeight="1">
       <c r="A23" s="75"/>
       <c r="B23" s="78"/>
       <c r="C23" s="79"/>
@@ -5665,19 +5619,20 @@
       <c r="L23" s="22"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A24" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="76">
-        <v>15</v>
-      </c>
-      <c r="C24" s="77"/>
+      <c r="A24" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="92">
+        <f>N21</f>
+        <v>30</v>
+      </c>
+      <c r="C24" s="93"/>
       <c r="D24" s="84"/>
-      <c r="E24" s="76">
-        <f>N20</f>
-        <v>15</v>
-      </c>
-      <c r="F24" s="77"/>
+      <c r="E24" s="92">
+        <f>B24</f>
+        <v>30</v>
+      </c>
+      <c r="F24" s="93"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="20"/>
@@ -5699,7 +5654,7 @@
       <c r="K25" s="21"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:15" ht="31.5" customHeight="1" thickBot="1">
       <c r="A26" s="94"/>
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
@@ -5728,19 +5683,16 @@
       <c r="L27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="53">
     <mergeCell ref="B24:C26"/>
     <mergeCell ref="E24:F26"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:C23"/>
+    <mergeCell ref="E19:F23"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="G16:H26"/>
     <mergeCell ref="I16:L26"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="E19:F21"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="E15:F16"/>
@@ -5805,12 +5757,13 @@
     <row r="1" spans="1:1">
       <c r="A1">
         <f>AVERAGE(김예은!G16,류희주!G16,박민!G16,박상준!G16,배근준!G16,신우철!G16,안예리!G16,윤보림!G16,이민정!G16,이소영!G16,이하늘!G16,이현아!G16,임장군!G16,황주원!G16)</f>
-        <v>85.708333333333329</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5819,7 +5772,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A15" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:L26"/>
+      <selection activeCell="G16" sqref="G16:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5885,7 +5838,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="26">
-        <v>45495</v>
+        <v>45505</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="28"/>
@@ -5912,7 +5865,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="26">
-        <v>45497</v>
+        <v>45509</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -5928,7 +5881,7 @@
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="37" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -5937,7 +5890,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="26">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="28"/>
@@ -6127,7 +6080,7 @@
       <c r="K14" s="58"/>
       <c r="L14" s="59"/>
       <c r="N14" s="10">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="42" customHeight="1" thickBot="1">
@@ -6158,14 +6111,14 @@
       <c r="K15" s="15"/>
       <c r="L15" s="16"/>
       <c r="N15" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O15" s="1">
-        <f>SUM(N13:N15)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
+        <f>SUM(N13:N16)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="7.5" customHeight="1" thickBot="1">
       <c r="A16" s="75"/>
       <c r="B16" s="78"/>
       <c r="C16" s="79"/>
@@ -6178,13 +6131,13 @@
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="19"/>
       <c r="N16" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -6193,13 +6146,13 @@
       </c>
       <c r="B17" s="76">
         <f>O15</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C17" s="77"/>
       <c r="D17" s="84"/>
       <c r="E17" s="76">
         <f>B17</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F17" s="77"/>
       <c r="G17" s="46"/>
@@ -6208,8 +6161,8 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
       <c r="L17" s="22"/>
-      <c r="N17" s="9">
-        <v>10</v>
+      <c r="N17" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="40.5" customHeight="1" thickBot="1">
@@ -6225,7 +6178,7 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
-      <c r="N18" s="12">
+      <c r="N18" s="9">
         <v>5</v>
       </c>
     </row>
@@ -6235,7 +6188,7 @@
       </c>
       <c r="B19" s="92">
         <f>O19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C19" s="93"/>
       <c r="D19" s="83" t="s">
@@ -6243,7 +6196,7 @@
       </c>
       <c r="E19" s="92">
         <f>B19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="46"/>
@@ -6253,11 +6206,11 @@
       <c r="K19" s="21"/>
       <c r="L19" s="22"/>
       <c r="N19" s="12">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="O19" s="1">
-        <f>SUM(N16:N18)</f>
-        <v>25</v>
+        <f>SUM(N17:N20)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -6274,37 +6227,33 @@
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="N20" s="12">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="84"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A22" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="92">
-        <v>15</v>
-      </c>
-      <c r="C22" s="93"/>
+      <c r="N21" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="1.5" customHeight="1">
+      <c r="A22" s="74"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="84"/>
-      <c r="E22" s="92">
-        <f>N19</f>
-        <v>15</v>
-      </c>
-      <c r="F22" s="93"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="20"/>
@@ -6312,7 +6261,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1">
+    <row r="23" spans="1:15" ht="18.75" hidden="1" customHeight="1">
       <c r="A23" s="75"/>
       <c r="B23" s="78"/>
       <c r="C23" s="79"/>
@@ -6327,19 +6276,20 @@
       <c r="L23" s="22"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A24" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="76">
-        <v>15</v>
-      </c>
-      <c r="C24" s="77"/>
+      <c r="A24" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="92">
+        <f>N21</f>
+        <v>30</v>
+      </c>
+      <c r="C24" s="93"/>
       <c r="D24" s="84"/>
-      <c r="E24" s="76">
-        <f>N20</f>
-        <v>10</v>
-      </c>
-      <c r="F24" s="77"/>
+      <c r="E24" s="92">
+        <f>B24</f>
+        <v>30</v>
+      </c>
+      <c r="F24" s="93"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="20"/>
@@ -6361,7 +6311,7 @@
       <c r="K25" s="21"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:15" ht="31.5" customHeight="1" thickBot="1">
       <c r="A26" s="94"/>
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
@@ -6390,19 +6340,16 @@
       <c r="L27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="53">
     <mergeCell ref="B24:C26"/>
     <mergeCell ref="E24:F26"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:C23"/>
+    <mergeCell ref="E19:F23"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="G16:H26"/>
     <mergeCell ref="I16:L26"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="E19:F21"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="E15:F16"/>
@@ -6459,7 +6406,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:F6"/>
+      <selection activeCell="G16" sqref="G16:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6525,7 +6472,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="26">
-        <v>45495</v>
+        <v>45505</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="28"/>
@@ -6552,7 +6499,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="26">
-        <v>45497</v>
+        <v>45509</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -6568,7 +6515,7 @@
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="37" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -6577,7 +6524,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="26">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="28"/>
@@ -6767,7 +6714,7 @@
       <c r="K14" s="58"/>
       <c r="L14" s="59"/>
       <c r="N14" s="10">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="42" customHeight="1" thickBot="1">
@@ -6798,14 +6745,14 @@
       <c r="K15" s="15"/>
       <c r="L15" s="16"/>
       <c r="N15" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O15" s="1">
-        <f>SUM(N13:N15)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
+        <f>SUM(N13:N16)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="7.5" customHeight="1" thickBot="1">
       <c r="A16" s="75"/>
       <c r="B16" s="78"/>
       <c r="C16" s="79"/>
@@ -6818,13 +6765,13 @@
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="19"/>
       <c r="N16" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -6833,13 +6780,13 @@
       </c>
       <c r="B17" s="76">
         <f>O15</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C17" s="77"/>
       <c r="D17" s="84"/>
       <c r="E17" s="76">
         <f>B17</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F17" s="77"/>
       <c r="G17" s="46"/>
@@ -6848,8 +6795,8 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
       <c r="L17" s="22"/>
-      <c r="N17" s="9">
-        <v>10</v>
+      <c r="N17" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="40.5" customHeight="1" thickBot="1">
@@ -6865,7 +6812,7 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
-      <c r="N18" s="12">
+      <c r="N18" s="9">
         <v>5</v>
       </c>
     </row>
@@ -6875,7 +6822,7 @@
       </c>
       <c r="B19" s="92">
         <f>O19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C19" s="93"/>
       <c r="D19" s="83" t="s">
@@ -6883,7 +6830,7 @@
       </c>
       <c r="E19" s="92">
         <f>B19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="46"/>
@@ -6893,11 +6840,11 @@
       <c r="K19" s="21"/>
       <c r="L19" s="22"/>
       <c r="N19" s="12">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="O19" s="1">
-        <f>SUM(N16:N18)</f>
-        <v>25</v>
+        <f>SUM(N17:N20)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -6914,37 +6861,33 @@
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="N20" s="12">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="84"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A22" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="92">
-        <v>15</v>
-      </c>
-      <c r="C22" s="93"/>
+      <c r="N21" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="1.5" customHeight="1">
+      <c r="A22" s="74"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="84"/>
-      <c r="E22" s="92">
-        <f>N19</f>
-        <v>15</v>
-      </c>
-      <c r="F22" s="93"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="20"/>
@@ -6952,7 +6895,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1">
+    <row r="23" spans="1:15" ht="18.75" hidden="1" customHeight="1">
       <c r="A23" s="75"/>
       <c r="B23" s="78"/>
       <c r="C23" s="79"/>
@@ -6967,19 +6910,20 @@
       <c r="L23" s="22"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A24" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="76">
-        <v>15</v>
-      </c>
-      <c r="C24" s="77"/>
+      <c r="A24" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="92">
+        <f>N21</f>
+        <v>30</v>
+      </c>
+      <c r="C24" s="93"/>
       <c r="D24" s="84"/>
-      <c r="E24" s="76">
-        <f>N20</f>
-        <v>10</v>
-      </c>
-      <c r="F24" s="77"/>
+      <c r="E24" s="92">
+        <f>B24</f>
+        <v>30</v>
+      </c>
+      <c r="F24" s="93"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="20"/>
@@ -7001,7 +6945,7 @@
       <c r="K25" s="21"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:15" ht="31.5" customHeight="1" thickBot="1">
       <c r="A26" s="94"/>
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
@@ -7030,19 +6974,16 @@
       <c r="L27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="53">
     <mergeCell ref="B24:C26"/>
     <mergeCell ref="E24:F26"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:C23"/>
+    <mergeCell ref="E19:F23"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="G16:H26"/>
     <mergeCell ref="I16:L26"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="E19:F21"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="E15:F16"/>
@@ -7099,7 +7040,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="G16" sqref="G16:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7165,7 +7106,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="26">
-        <v>45495</v>
+        <v>45505</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="28"/>
@@ -7192,7 +7133,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="26">
-        <v>45497</v>
+        <v>45509</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -7208,7 +7149,7 @@
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="37" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -7217,7 +7158,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="26">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="28"/>
@@ -7274,7 +7215,7 @@
       <c r="F9" s="52"/>
       <c r="G9" s="6" t="str">
         <f>IF($G$16&gt;=90,"○","")</f>
-        <v/>
+        <v>○</v>
       </c>
       <c r="H9" s="52" t="s">
         <v>9</v>
@@ -7322,7 +7263,7 @@
       <c r="F11" s="52"/>
       <c r="G11" s="6" t="str">
         <f t="shared" ref="G11" si="0">IF(AND($G$16&lt;80,$G$16&gt;=60),"○","")</f>
-        <v>○</v>
+        <v/>
       </c>
       <c r="H11" s="52" t="s">
         <v>12</v>
@@ -7407,7 +7348,7 @@
       <c r="K14" s="58"/>
       <c r="L14" s="59"/>
       <c r="N14" s="10">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="42" customHeight="1" thickBot="1">
@@ -7438,14 +7379,14 @@
       <c r="K15" s="15"/>
       <c r="L15" s="16"/>
       <c r="N15" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O15" s="1">
-        <f>SUM(N13:N15)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
+        <f>SUM(N13:N16)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="7.5" customHeight="1" thickBot="1">
       <c r="A16" s="75"/>
       <c r="B16" s="78"/>
       <c r="C16" s="79"/>
@@ -7454,17 +7395,17 @@
       <c r="F16" s="79"/>
       <c r="G16" s="46">
         <f>ROUND(SUM(E15:F26),1)</f>
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="19"/>
       <c r="N16" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -7473,13 +7414,13 @@
       </c>
       <c r="B17" s="76">
         <f>O15</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C17" s="77"/>
       <c r="D17" s="84"/>
       <c r="E17" s="76">
         <f>B17</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F17" s="77"/>
       <c r="G17" s="46"/>
@@ -7488,8 +7429,8 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
       <c r="L17" s="22"/>
-      <c r="N17" s="9">
-        <v>10</v>
+      <c r="N17" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="40.5" customHeight="1" thickBot="1">
@@ -7505,7 +7446,7 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
-      <c r="N18" s="12">
+      <c r="N18" s="9">
         <v>5</v>
       </c>
     </row>
@@ -7515,7 +7456,7 @@
       </c>
       <c r="B19" s="92">
         <f>O19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C19" s="93"/>
       <c r="D19" s="83" t="s">
@@ -7523,7 +7464,7 @@
       </c>
       <c r="E19" s="92">
         <f>B19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="46"/>
@@ -7536,8 +7477,8 @@
         <v>5</v>
       </c>
       <c r="O19" s="1">
-        <f>SUM(N16:N18)</f>
-        <v>25</v>
+        <f>SUM(N17:N20)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -7554,37 +7495,33 @@
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="N20" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="84"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A22" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="92">
-        <v>15</v>
-      </c>
-      <c r="C22" s="93"/>
+      <c r="N21" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="1.5" customHeight="1">
+      <c r="A22" s="74"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="84"/>
-      <c r="E22" s="92">
-        <f>N19</f>
-        <v>5</v>
-      </c>
-      <c r="F22" s="93"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="20"/>
@@ -7592,7 +7529,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1">
+    <row r="23" spans="1:15" ht="18.75" hidden="1" customHeight="1">
       <c r="A23" s="75"/>
       <c r="B23" s="78"/>
       <c r="C23" s="79"/>
@@ -7607,19 +7544,20 @@
       <c r="L23" s="22"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A24" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="76">
-        <v>15</v>
-      </c>
-      <c r="C24" s="77"/>
+      <c r="A24" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="92">
+        <f>N21</f>
+        <v>30</v>
+      </c>
+      <c r="C24" s="93"/>
       <c r="D24" s="84"/>
-      <c r="E24" s="76">
-        <f>N20</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="77"/>
+      <c r="E24" s="92">
+        <f>B24</f>
+        <v>30</v>
+      </c>
+      <c r="F24" s="93"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="20"/>
@@ -7641,7 +7579,7 @@
       <c r="K25" s="21"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:15" ht="31.5" customHeight="1" thickBot="1">
       <c r="A26" s="94"/>
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
@@ -7670,19 +7608,16 @@
       <c r="L27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="53">
     <mergeCell ref="B24:C26"/>
     <mergeCell ref="E24:F26"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:C23"/>
+    <mergeCell ref="E19:F23"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="G16:H26"/>
     <mergeCell ref="I16:L26"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="E19:F21"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="E15:F16"/>
@@ -7738,8 +7673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7805,7 +7740,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="26">
-        <v>45495</v>
+        <v>45505</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="28"/>
@@ -7832,7 +7767,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="26">
-        <v>45497</v>
+        <v>45509</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -7848,7 +7783,7 @@
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="37" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -7857,7 +7792,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="26">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="28"/>
@@ -7914,7 +7849,7 @@
       <c r="F9" s="52"/>
       <c r="G9" s="6" t="str">
         <f>IF($G$16&gt;=90,"○","")</f>
-        <v/>
+        <v>○</v>
       </c>
       <c r="H9" s="52" t="s">
         <v>9</v>
@@ -7938,7 +7873,7 @@
       <c r="F10" s="52"/>
       <c r="G10" s="6" t="str">
         <f>IF(AND($G$16&lt;90,$G$16&gt;=80),"○","")</f>
-        <v>○</v>
+        <v/>
       </c>
       <c r="H10" s="52" t="s">
         <v>11</v>
@@ -8047,7 +7982,7 @@
       <c r="K14" s="58"/>
       <c r="L14" s="59"/>
       <c r="N14" s="10">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="42" customHeight="1" thickBot="1">
@@ -8078,14 +8013,14 @@
       <c r="K15" s="15"/>
       <c r="L15" s="16"/>
       <c r="N15" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O15" s="1">
-        <f>SUM(N13:N15)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
+        <f>SUM(N13:N16)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="7.5" customHeight="1" thickBot="1">
       <c r="A16" s="75"/>
       <c r="B16" s="78"/>
       <c r="C16" s="79"/>
@@ -8094,17 +8029,17 @@
       <c r="F16" s="79"/>
       <c r="G16" s="46">
         <f>ROUND(SUM(E15:F26),1)</f>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="19"/>
       <c r="N16" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -8113,13 +8048,13 @@
       </c>
       <c r="B17" s="76">
         <f>O15</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C17" s="77"/>
       <c r="D17" s="84"/>
       <c r="E17" s="76">
         <f>B17</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F17" s="77"/>
       <c r="G17" s="46"/>
@@ -8128,8 +8063,8 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
       <c r="L17" s="22"/>
-      <c r="N17" s="9">
-        <v>10</v>
+      <c r="N17" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="40.5" customHeight="1" thickBot="1">
@@ -8145,7 +8080,7 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
-      <c r="N18" s="12">
+      <c r="N18" s="9">
         <v>5</v>
       </c>
     </row>
@@ -8155,7 +8090,7 @@
       </c>
       <c r="B19" s="92">
         <f>O19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C19" s="93"/>
       <c r="D19" s="83" t="s">
@@ -8163,7 +8098,7 @@
       </c>
       <c r="E19" s="92">
         <f>B19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="46"/>
@@ -8173,11 +8108,11 @@
       <c r="K19" s="21"/>
       <c r="L19" s="22"/>
       <c r="N19" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O19" s="1">
-        <f>SUM(N16:N18)</f>
-        <v>25</v>
+        <f>SUM(N17:N20)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -8194,37 +8129,33 @@
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="N20" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="84"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A22" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="92">
-        <v>15</v>
-      </c>
-      <c r="C22" s="93"/>
+      <c r="N21" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="1.5" customHeight="1">
+      <c r="A22" s="74"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="84"/>
-      <c r="E22" s="92">
-        <f>N19</f>
-        <v>10</v>
-      </c>
-      <c r="F22" s="93"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="20"/>
@@ -8232,7 +8163,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1">
+    <row r="23" spans="1:15" ht="18.75" hidden="1" customHeight="1">
       <c r="A23" s="75"/>
       <c r="B23" s="78"/>
       <c r="C23" s="79"/>
@@ -8247,19 +8178,20 @@
       <c r="L23" s="22"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A24" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="76">
-        <v>15</v>
-      </c>
-      <c r="C24" s="77"/>
+      <c r="A24" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="92">
+        <f>N21</f>
+        <v>30</v>
+      </c>
+      <c r="C24" s="93"/>
       <c r="D24" s="84"/>
-      <c r="E24" s="76">
-        <f>N20</f>
-        <v>5</v>
-      </c>
-      <c r="F24" s="77"/>
+      <c r="E24" s="92">
+        <f>B24</f>
+        <v>30</v>
+      </c>
+      <c r="F24" s="93"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="20"/>
@@ -8281,7 +8213,7 @@
       <c r="K25" s="21"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:15" ht="31.5" customHeight="1" thickBot="1">
       <c r="A26" s="94"/>
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
@@ -8310,19 +8242,16 @@
       <c r="L27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="53">
     <mergeCell ref="B24:C26"/>
     <mergeCell ref="E24:F26"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:C23"/>
+    <mergeCell ref="E19:F23"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="G16:H26"/>
     <mergeCell ref="I16:L26"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="E19:F21"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="E15:F16"/>
@@ -8379,7 +8308,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A15" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:L26"/>
+      <selection activeCell="G16" sqref="G16:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8445,7 +8374,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="26">
-        <v>45495</v>
+        <v>45505</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="28"/>
@@ -8472,7 +8401,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="26">
-        <v>45497</v>
+        <v>45509</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -8488,7 +8417,7 @@
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="37" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -8497,7 +8426,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="26">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="28"/>
@@ -8554,7 +8483,7 @@
       <c r="F9" s="52"/>
       <c r="G9" s="6" t="str">
         <f>IF($G$16&gt;=90,"○","")</f>
-        <v/>
+        <v>○</v>
       </c>
       <c r="H9" s="52" t="s">
         <v>9</v>
@@ -8578,7 +8507,7 @@
       <c r="F10" s="52"/>
       <c r="G10" s="6" t="str">
         <f>IF(AND($G$16&lt;90,$G$16&gt;=80),"○","")</f>
-        <v>○</v>
+        <v/>
       </c>
       <c r="H10" s="52" t="s">
         <v>11</v>
@@ -8687,7 +8616,7 @@
       <c r="K14" s="58"/>
       <c r="L14" s="59"/>
       <c r="N14" s="10">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="42" customHeight="1" thickBot="1">
@@ -8718,14 +8647,14 @@
       <c r="K15" s="15"/>
       <c r="L15" s="16"/>
       <c r="N15" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O15" s="1">
-        <f>SUM(N13:N15)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
+        <f>SUM(N13:N16)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="7.5" customHeight="1" thickBot="1">
       <c r="A16" s="75"/>
       <c r="B16" s="78"/>
       <c r="C16" s="79"/>
@@ -8734,17 +8663,17 @@
       <c r="F16" s="79"/>
       <c r="G16" s="46">
         <f>ROUND(SUM(E15:F26),1)</f>
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="19"/>
       <c r="N16" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -8753,13 +8682,13 @@
       </c>
       <c r="B17" s="76">
         <f>O15</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C17" s="77"/>
       <c r="D17" s="84"/>
       <c r="E17" s="76">
         <f>B17</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F17" s="77"/>
       <c r="G17" s="46"/>
@@ -8768,8 +8697,8 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
       <c r="L17" s="22"/>
-      <c r="N17" s="9">
-        <v>10</v>
+      <c r="N17" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="40.5" customHeight="1" thickBot="1">
@@ -8785,7 +8714,7 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
-      <c r="N18" s="12">
+      <c r="N18" s="9">
         <v>5</v>
       </c>
     </row>
@@ -8795,7 +8724,7 @@
       </c>
       <c r="B19" s="92">
         <f>O19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C19" s="93"/>
       <c r="D19" s="83" t="s">
@@ -8803,7 +8732,7 @@
       </c>
       <c r="E19" s="92">
         <f>B19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="46"/>
@@ -8813,11 +8742,11 @@
       <c r="K19" s="21"/>
       <c r="L19" s="22"/>
       <c r="N19" s="12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O19" s="1">
-        <f>SUM(N16:N18)</f>
-        <v>25</v>
+        <f>SUM(N17:N20)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -8834,37 +8763,33 @@
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="N20" s="12">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="84"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A22" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="92">
-        <v>15</v>
-      </c>
-      <c r="C22" s="93"/>
+      <c r="N21" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="1.5" customHeight="1">
+      <c r="A22" s="74"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="84"/>
-      <c r="E22" s="92">
-        <f>N19</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="93"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="20"/>
@@ -8872,7 +8797,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1">
+    <row r="23" spans="1:15" ht="18.75" hidden="1" customHeight="1">
       <c r="A23" s="75"/>
       <c r="B23" s="78"/>
       <c r="C23" s="79"/>
@@ -8887,19 +8812,20 @@
       <c r="L23" s="22"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A24" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="76">
-        <v>15</v>
-      </c>
-      <c r="C24" s="77"/>
+      <c r="A24" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="92">
+        <f>N21</f>
+        <v>30</v>
+      </c>
+      <c r="C24" s="93"/>
       <c r="D24" s="84"/>
-      <c r="E24" s="76">
-        <f>N20</f>
-        <v>10</v>
-      </c>
-      <c r="F24" s="77"/>
+      <c r="E24" s="92">
+        <f>B24</f>
+        <v>30</v>
+      </c>
+      <c r="F24" s="93"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="20"/>
@@ -8921,7 +8847,7 @@
       <c r="K25" s="21"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:15" ht="31.5" customHeight="1" thickBot="1">
       <c r="A26" s="94"/>
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
@@ -8950,19 +8876,16 @@
       <c r="L27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="53">
     <mergeCell ref="B24:C26"/>
     <mergeCell ref="E24:F26"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:C23"/>
+    <mergeCell ref="E19:F23"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="G16:H26"/>
     <mergeCell ref="I16:L26"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="E19:F21"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="E15:F16"/>
@@ -9019,7 +8942,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A15" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="G16" sqref="G16:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9085,7 +9008,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="26">
-        <v>45495</v>
+        <v>45505</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="28"/>
@@ -9112,7 +9035,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="26">
-        <v>45497</v>
+        <v>45509</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -9128,7 +9051,7 @@
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="37" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -9137,7 +9060,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="26">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="28"/>
@@ -9327,7 +9250,7 @@
       <c r="K14" s="58"/>
       <c r="L14" s="59"/>
       <c r="N14" s="10">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="42" customHeight="1" thickBot="1">
@@ -9358,14 +9281,14 @@
       <c r="K15" s="15"/>
       <c r="L15" s="16"/>
       <c r="N15" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O15" s="1">
-        <f>SUM(N13:N15)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
+        <f>SUM(N13:N16)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="7.5" customHeight="1" thickBot="1">
       <c r="A16" s="75"/>
       <c r="B16" s="78"/>
       <c r="C16" s="79"/>
@@ -9378,13 +9301,13 @@
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="19"/>
       <c r="N16" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -9393,13 +9316,13 @@
       </c>
       <c r="B17" s="76">
         <f>O15</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C17" s="77"/>
       <c r="D17" s="84"/>
       <c r="E17" s="76">
         <f>B17</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F17" s="77"/>
       <c r="G17" s="46"/>
@@ -9408,8 +9331,8 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
       <c r="L17" s="22"/>
-      <c r="N17" s="9">
-        <v>10</v>
+      <c r="N17" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="40.5" customHeight="1" thickBot="1">
@@ -9425,7 +9348,7 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
-      <c r="N18" s="12">
+      <c r="N18" s="9">
         <v>5</v>
       </c>
     </row>
@@ -9435,7 +9358,7 @@
       </c>
       <c r="B19" s="92">
         <f>O19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C19" s="93"/>
       <c r="D19" s="83" t="s">
@@ -9443,7 +9366,7 @@
       </c>
       <c r="E19" s="92">
         <f>B19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="46"/>
@@ -9453,11 +9376,11 @@
       <c r="K19" s="21"/>
       <c r="L19" s="22"/>
       <c r="N19" s="12">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="O19" s="1">
-        <f>SUM(N16:N18)</f>
-        <v>25</v>
+        <f>SUM(N17:N20)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -9474,37 +9397,33 @@
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="N20" s="12">
-        <v>12.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="84"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A22" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="92">
-        <v>15</v>
-      </c>
-      <c r="C22" s="93"/>
+      <c r="N21" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="1.5" customHeight="1">
+      <c r="A22" s="74"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="84"/>
-      <c r="E22" s="92">
-        <f>N19</f>
-        <v>12.5</v>
-      </c>
-      <c r="F22" s="93"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="20"/>
@@ -9512,7 +9431,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1">
+    <row r="23" spans="1:15" ht="18.75" hidden="1" customHeight="1">
       <c r="A23" s="75"/>
       <c r="B23" s="78"/>
       <c r="C23" s="79"/>
@@ -9527,19 +9446,20 @@
       <c r="L23" s="22"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A24" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="76">
-        <v>15</v>
-      </c>
-      <c r="C24" s="77"/>
+      <c r="A24" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="92">
+        <f>N21</f>
+        <v>30</v>
+      </c>
+      <c r="C24" s="93"/>
       <c r="D24" s="84"/>
-      <c r="E24" s="76">
-        <f>N20</f>
-        <v>12.5</v>
-      </c>
-      <c r="F24" s="77"/>
+      <c r="E24" s="92">
+        <f>B24</f>
+        <v>30</v>
+      </c>
+      <c r="F24" s="93"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="20"/>
@@ -9561,7 +9481,7 @@
       <c r="K25" s="21"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:15" ht="31.5" customHeight="1" thickBot="1">
       <c r="A26" s="94"/>
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
@@ -9590,19 +9510,16 @@
       <c r="L27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="53">
     <mergeCell ref="B24:C26"/>
     <mergeCell ref="E24:F26"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:C23"/>
+    <mergeCell ref="E19:F23"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="G16:H26"/>
     <mergeCell ref="I16:L26"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="E19:F21"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="E15:F16"/>
@@ -9658,7 +9575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A14" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="G16" sqref="G16:H26"/>
     </sheetView>
   </sheetViews>
@@ -9725,7 +9642,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="26">
-        <v>45495</v>
+        <v>45505</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="28"/>
@@ -9752,7 +9669,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="26">
-        <v>45497</v>
+        <v>45509</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -9768,7 +9685,7 @@
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="37" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -9777,7 +9694,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="26">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="28"/>
@@ -9967,7 +9884,7 @@
       <c r="K14" s="58"/>
       <c r="L14" s="59"/>
       <c r="N14" s="10">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="42" customHeight="1" thickBot="1">
@@ -9998,14 +9915,14 @@
       <c r="K15" s="15"/>
       <c r="L15" s="16"/>
       <c r="N15" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O15" s="1">
-        <f>SUM(N13:N15)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
+        <f>SUM(N13:N16)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="7.5" customHeight="1" thickBot="1">
       <c r="A16" s="75"/>
       <c r="B16" s="78"/>
       <c r="C16" s="79"/>
@@ -10014,17 +9931,17 @@
       <c r="F16" s="79"/>
       <c r="G16" s="46" t="str">
         <f>ROUND(SUM(E15:F26),1)&amp;"("&amp;70&amp;")"</f>
-        <v>75(70)</v>
+        <v>95(70)</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="19"/>
       <c r="N16" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -10033,13 +9950,13 @@
       </c>
       <c r="B17" s="76">
         <f>O15</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C17" s="77"/>
       <c r="D17" s="84"/>
       <c r="E17" s="76">
         <f>B17</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F17" s="77"/>
       <c r="G17" s="46"/>
@@ -10048,8 +9965,8 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
       <c r="L17" s="22"/>
-      <c r="N17" s="9">
-        <v>10</v>
+      <c r="N17" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="40.5" customHeight="1" thickBot="1">
@@ -10065,7 +9982,7 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
-      <c r="N18" s="12">
+      <c r="N18" s="9">
         <v>5</v>
       </c>
     </row>
@@ -10075,7 +9992,7 @@
       </c>
       <c r="B19" s="92">
         <f>O19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C19" s="93"/>
       <c r="D19" s="83" t="s">
@@ -10083,7 +10000,7 @@
       </c>
       <c r="E19" s="92">
         <f>B19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="46"/>
@@ -10093,11 +10010,11 @@
       <c r="K19" s="21"/>
       <c r="L19" s="22"/>
       <c r="N19" s="12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O19" s="1">
-        <f>SUM(N16:N18)</f>
-        <v>25</v>
+        <f>SUM(N17:N20)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -10114,37 +10031,33 @@
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="N20" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="84"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A22" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="92">
-        <v>15</v>
-      </c>
-      <c r="C22" s="93"/>
+      <c r="N21" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="1.5" customHeight="1">
+      <c r="A22" s="74"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="84"/>
-      <c r="E22" s="92">
-        <f>N19</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="93"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="20"/>
@@ -10152,7 +10065,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1">
+    <row r="23" spans="1:15" ht="18.75" hidden="1" customHeight="1">
       <c r="A23" s="75"/>
       <c r="B23" s="78"/>
       <c r="C23" s="79"/>
@@ -10167,19 +10080,20 @@
       <c r="L23" s="22"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A24" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="76">
-        <v>15</v>
-      </c>
-      <c r="C24" s="77"/>
+      <c r="A24" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="92">
+        <f>N21</f>
+        <v>30</v>
+      </c>
+      <c r="C24" s="93"/>
       <c r="D24" s="84"/>
-      <c r="E24" s="76">
-        <f>N20</f>
-        <v>5</v>
-      </c>
-      <c r="F24" s="77"/>
+      <c r="E24" s="92">
+        <f>B24</f>
+        <v>30</v>
+      </c>
+      <c r="F24" s="93"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="20"/>
@@ -10201,7 +10115,7 @@
       <c r="K25" s="21"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:15" ht="31.5" customHeight="1" thickBot="1">
       <c r="A26" s="94"/>
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
@@ -10230,19 +10144,16 @@
       <c r="L27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="53">
     <mergeCell ref="B24:C26"/>
     <mergeCell ref="E24:F26"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:C23"/>
+    <mergeCell ref="E19:F23"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="G16:H26"/>
     <mergeCell ref="I16:L26"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="E19:F21"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="E15:F16"/>
@@ -10299,7 +10210,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A15" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="G16" sqref="G16:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10365,7 +10276,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="26">
-        <v>45495</v>
+        <v>45505</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="28"/>
@@ -10392,7 +10303,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="26">
-        <v>45497</v>
+        <v>45509</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -10408,7 +10319,7 @@
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="37" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -10417,7 +10328,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="26">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="28"/>
@@ -10474,7 +10385,7 @@
       <c r="F9" s="52"/>
       <c r="G9" s="6" t="str">
         <f>IF($G$16&gt;=90,"○","")</f>
-        <v/>
+        <v>○</v>
       </c>
       <c r="H9" s="52" t="s">
         <v>9</v>
@@ -10498,7 +10409,7 @@
       <c r="F10" s="52"/>
       <c r="G10" s="6" t="str">
         <f>IF(AND($G$16&lt;90,$G$16&gt;=80),"○","")</f>
-        <v>○</v>
+        <v/>
       </c>
       <c r="H10" s="52" t="s">
         <v>11</v>
@@ -10607,7 +10518,7 @@
       <c r="K14" s="58"/>
       <c r="L14" s="59"/>
       <c r="N14" s="10">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="42" customHeight="1" thickBot="1">
@@ -10638,14 +10549,14 @@
       <c r="K15" s="15"/>
       <c r="L15" s="16"/>
       <c r="N15" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O15" s="1">
-        <f>SUM(N13:N15)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
+        <f>SUM(N13:N16)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="7.5" customHeight="1" thickBot="1">
       <c r="A16" s="75"/>
       <c r="B16" s="78"/>
       <c r="C16" s="79"/>
@@ -10654,17 +10565,17 @@
       <c r="F16" s="79"/>
       <c r="G16" s="46">
         <f>ROUND(SUM(E15:F26),1)</f>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="19"/>
       <c r="N16" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -10673,13 +10584,13 @@
       </c>
       <c r="B17" s="76">
         <f>O15</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C17" s="77"/>
       <c r="D17" s="84"/>
       <c r="E17" s="76">
         <f>B17</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F17" s="77"/>
       <c r="G17" s="46"/>
@@ -10688,8 +10599,8 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
       <c r="L17" s="22"/>
-      <c r="N17" s="9">
-        <v>10</v>
+      <c r="N17" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="40.5" customHeight="1" thickBot="1">
@@ -10705,7 +10616,7 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
-      <c r="N18" s="12">
+      <c r="N18" s="9">
         <v>5</v>
       </c>
     </row>
@@ -10715,7 +10626,7 @@
       </c>
       <c r="B19" s="92">
         <f>O19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C19" s="93"/>
       <c r="D19" s="83" t="s">
@@ -10723,7 +10634,7 @@
       </c>
       <c r="E19" s="92">
         <f>B19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="46"/>
@@ -10733,11 +10644,11 @@
       <c r="K19" s="21"/>
       <c r="L19" s="22"/>
       <c r="N19" s="12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O19" s="1">
-        <f>SUM(N16:N18)</f>
-        <v>25</v>
+        <f>SUM(N17:N20)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -10754,37 +10665,33 @@
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="N20" s="12">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="84"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A22" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="92">
-        <v>15</v>
-      </c>
-      <c r="C22" s="93"/>
+      <c r="N21" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="1.5" customHeight="1">
+      <c r="A22" s="74"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="84"/>
-      <c r="E22" s="92">
-        <f>N19</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="93"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="20"/>
@@ -10792,7 +10699,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1">
+    <row r="23" spans="1:15" ht="18.75" hidden="1" customHeight="1">
       <c r="A23" s="75"/>
       <c r="B23" s="78"/>
       <c r="C23" s="79"/>
@@ -10807,19 +10714,20 @@
       <c r="L23" s="22"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A24" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="76">
-        <v>15</v>
-      </c>
-      <c r="C24" s="77"/>
+      <c r="A24" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="92">
+        <f>N21</f>
+        <v>30</v>
+      </c>
+      <c r="C24" s="93"/>
       <c r="D24" s="84"/>
-      <c r="E24" s="76">
-        <f>N20</f>
-        <v>15</v>
-      </c>
-      <c r="F24" s="77"/>
+      <c r="E24" s="92">
+        <f>B24</f>
+        <v>30</v>
+      </c>
+      <c r="F24" s="93"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="20"/>
@@ -10841,7 +10749,7 @@
       <c r="K25" s="21"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:15" ht="31.5" customHeight="1" thickBot="1">
       <c r="A26" s="94"/>
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
@@ -10870,19 +10778,16 @@
       <c r="L27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="53">
     <mergeCell ref="B24:C26"/>
     <mergeCell ref="E24:F26"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:C23"/>
+    <mergeCell ref="E19:F23"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="G16:H26"/>
     <mergeCell ref="I16:L26"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="E19:F21"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="E15:F16"/>
